--- a/src/main/resources/ConfigAndTestData.xlsx
+++ b/src/main/resources/ConfigAndTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="signUpUserTest" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Active</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>NewPassword</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,13 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +569,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="b">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -580,8 +592,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="b">
-        <v>1</v>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -611,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,8 +739,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="b">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -774,8 +786,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="b">
-        <v>1</v>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
